--- a/translation/xlsx/_tsum_020.xlsx
+++ b/translation/xlsx/_tsum_020.xlsx
@@ -891,7 +891,7 @@
     <t>I forced myself to relax, scratched my neck without hesitation, and tried to cope with the sticky sweat all over my body.</t>
   </si>
   <si>
-    <t xml:space="preserve">그렇게 생각하며 진정한 척, 주저 없이 목덜미를 긁어, 흐르지 않고 끈적하게 달라붙은 땀의 불쾌감을 참아낸다. </t>
+    <t>그렇게 생각하고 억지로 긴장을 가라앉히며, 땀이 끈적하게 맺힌 목덜미를 거침없이 벅벅 긁어 불쾌감을 억누른다.</t>
   </si>
   <si>
     <t xml:space="preserve">그렇게 생각하며 억지로 안정된 척, 주저없이 목덜미를 북북 긁으며 흥건히 고여 흐르지 않는 땀의 불쾌감을 참았다. </t>
@@ -6630,7 +6630,7 @@
     <t xml:space="preserve"> ...I hope I can get along with the 'next' Rena Ryuugu.</t>
   </si>
   <si>
-    <t xml:space="preserve">다음' 류구 레나 때는 사이좋게 지내자? </t>
+    <t xml:space="preserve"> '다음' 류구 레나 때는 사이좋게 지내자? </t>
   </si>
   <si>
     <t xml:space="preserve">......\"다음\" 류구 레나 때는 사이좋게 지내자? </t>
@@ -8114,7 +8114,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -8152,9 +8152,6 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18140,7 +18137,7 @@
       <c r="C435" s="1" t="s">
         <v>2203</v>
       </c>
-      <c r="D435" s="14" t="s">
+      <c r="D435" s="6" t="s">
         <v>2204</v>
       </c>
       <c r="G435" s="2"/>
